--- a/BT3456/Bài tập 5.1.xlsx
+++ b/BT3456/Bài tập 5.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT345\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D92C9E9-1A01-4CB3-BB7D-759F77D80A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC76C2E-7964-4F53-9177-D377E1B47036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -133,13 +133,25 @@
   </si>
   <si>
     <t>c4K04dtIaJsuWdi</t>
+  </si>
+  <si>
+    <t>aTlkJYLjcbLmue3</t>
+  </si>
+  <si>
+    <t>qs89QdAs9A</t>
+  </si>
+  <si>
+    <t>J41m3Qu4nD54Tr0nc</t>
+  </si>
+  <si>
+    <t>1a2BdKT5DIx3qxQN3UaC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF767676"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -242,10 +260,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,13 +567,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -622,12 +644,12 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -640,8 +662,8 @@
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
+      <c r="E8" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -659,11 +681,11 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -676,12 +698,12 @@
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
+      <c r="E10" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -694,8 +716,8 @@
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
       <c r="F11" s="5"/>
     </row>

--- a/BT3456/Bài tập 5.1.xlsx
+++ b/BT3456/Bài tập 5.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC76C2E-7964-4F53-9177-D377E1B47036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2FCD62-FB87-453C-BF28-2384C10FA8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>1a2BdKT5DIx3qxQN3UaC</t>
+  </si>
+  <si>
+    <t>moaZ63rVXUhlQ8tVS7Hw</t>
   </si>
 </sst>
 </file>
@@ -261,13 +264,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,7 +555,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -567,13 +570,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -662,7 +665,7 @@
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="5"/>
@@ -685,7 +688,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -698,7 +701,7 @@
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="5"/>
@@ -735,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F12" s="5"/>
     </row>

--- a/BT3456/Bài tập 5.1.xlsx
+++ b/BT3456/Bài tập 5.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2FCD62-FB87-453C-BF28-2384C10FA8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627C92B3-B3FF-428D-992E-DF5C41A93226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/BT3456/Bài tập 5.1.xlsx
+++ b/BT3456/Bài tập 5.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627C92B3-B3FF-428D-992E-DF5C41A93226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF47575-0446-45EB-B2CB-EA08A8AC3E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2004" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Tìm Flag</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -148,13 +145,25 @@
   </si>
   <si>
     <t>moaZ63rVXUhlQ8tVS7Hw</t>
+  </si>
+  <si>
+    <t>T!m3B@s3DSQL!</t>
+  </si>
+  <si>
+    <t>superpassword</t>
+  </si>
+  <si>
+    <t>KLfgyTIJbdhursqli</t>
+  </si>
+  <si>
+    <t>e2azO93i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +217,13 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -268,6 +284,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -570,13 +590,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -603,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -621,16 +641,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -639,16 +659,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -657,16 +677,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -675,16 +695,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -693,16 +713,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -711,16 +731,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -729,16 +749,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -747,32 +767,32 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
+      <c r="E14" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -781,30 +801,30 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
+      <c r="E16" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="5"/>
     </row>
